--- a/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_585.xlsx
+++ b/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_585.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E586"/>
+  <dimension ref="A1:G586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>gpt4o_label</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>key_text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non_key_text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>你知道它是什么意思吗？</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>看一下这个标志，</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +533,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>请你说一说这是什么</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>开始好，？</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +570,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>怎么样，有没有我们班谁也会跳街舞的，有，</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +607,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>我想问一下，你知道申请了哪些器官参与的运动吗？</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>那我想问一下，没关系，我不让你表演。我知道，</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +644,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>你来试试</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>哦，比如说那个动作就是是吧？那刚才他说的手脚，这是我们外部的器官，来，</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +681,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>今天我们一起来做做运动</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>运动。那不运动的同学，，这个运动动叫做举哑铃，哑铃在哪压力，你们自己带上了吗？哎，刚才刘老师让你们带了半水杯一个iphone,这个就是你们带会的压力。好，</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +718,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>请男生读绿色的字，女生读红色的字，实验步骤起</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>那咱们先来了解一下规则，请男生读绿色的字，女生读红色的字实验步骤起，</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +755,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>有些人的嘴巴，</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +792,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>用手去触摸，可以摸到什么？</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +829,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>用手摸，用眼看去找一找</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>好，待会儿你们就咱们吃。临时腹骨关节肌肉的变化，以及猜测一下他们三个到底起到什么作用？好，</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +866,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>我请退的小组来说一说他们要中插线</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>好了，坐人坐来，，</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +903,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>来陈国</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>好，其他人有没有不同意见，有不同意见吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +940,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>那根据你们刚才的活动，谁要来猜测一下五花元肌肉，它们到底会起到什么作用呢？</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>你帮他们说的更加具体了哈，更加细致了。好，请坐。就是我们的运动都是什么作用？来来，</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +977,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>它提供一个弯曲的点，</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +1014,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>关节，它可以弯曲，</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +1051,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>在你们右前方的位置里，书桌里找一扫咱们的模型材料有多少</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>你们向来试一试，好在你们你右前方的位置里，书桌里找一扫咱们的模型材料有多少，</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1088,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>谢谢张大，你，</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -945,6 +1125,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>568把你的模型框架明显放大点，</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -972,6 +1162,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>只有这一块肌肉够不够够？因为肌肉只能收缩和放松这块，肌肉放松了，你的手还是保持在这儿，怎么办，</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -999,6 +1199,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>在它的对侧。我要提醒范大主，</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,6 +1236,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>在你的手臂的下方，还有另外外一块肌肉，它叫做肱三头肌，三头肌肱只有二头肌和三头肌，</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1053,6 +1273,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>三头肌怎么运怎么锻炼呢？有一个动作叫小燕飞，体向以前，拿着你的哑铃向的累的累，这个动作向后方向后方去打开，这以我可以锻炼你的弓三头，</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1080,6 +1310,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>哎，他们三个争一下，谁是老大，不会厉害？</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>968好了去了，但平时我们的骨骼肌肉和和节节，他可可不可以独立活动？可不可以？</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1107,6 +1347,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>那只有肌肉手速关节骨骼说我们都不配合，他能不能完成运动，不能。所以他们三个不可不可以独立的去运动，而需要相互依存，相互配合协同运斗，</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,6 +1384,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>我们一起来读一下五</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1161,6 +1421,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>八号</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>有时候还会出现这样的小问这样的一些你不太喜欢的那怎么样才能避免呢，来，我们来打开一下，怎么样才能避免出现受伤的行为呢？，</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1458,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>注意运动适量哈水还有30哈，</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1215,6 +1495,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>画一画哪里是骨骨里是关节节，肌肉，先把骨在哪里？</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,6 +1528,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>好，来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>他要是重新来，</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1269,6 +1565,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>的，为什么要选一呀来选择？</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1602,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>不要说出来，用理由来分析到</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>好，再看下一道题目的读，我们可以灵活的转动手腕，这是因为谁在发挥作用呢？好，，</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1323,6 +1639,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>哎，这个叫什么呀？</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>那前段时间呢，方老师也去了这个诊所，就发现，就发现哎，医生手里面拿了一个器，注射器注射器是不是，</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1676,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>仔细思考了，</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1713,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>好，你来说你来，</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1750,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>分别往里推手往外拉，</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1787,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>只是讲了，如果做实验，那做完实验还要干什么丢，你想干什么，不是这个人需要干什么，</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1458,6 +1824,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>录记录在哪，记录在哪？</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1485,6 +1861,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>请你们画出注射器的活塞位置</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>那包老师这里就有一些温馨提示了，。什么表表示，</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1512,6 +1898,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>那现在请你们就开始准备实验吧。</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>这个小组同学。好，</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1539,6 +1935,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>好，再给两分钟的时间边观察边记录哈，用手堵住橡胶塞</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1566,6 +1972,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>你来补充。</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>另外一个就应该是装什么，</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1593,6 +2009,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>你来推你来推你来推水的，你来推空气的</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>那我现在请请你们继续拿，往里面推活塞的时候，这个10好像会变成多少，你来你来你来推你来推水的，你来推空气的，那个都是10h，对不对？</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1620,6 +2046,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>举手说往里推进活塞有没有变化？</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>哎，等一下，我只是同学们往里推，对不对？好，往里推这个水有没有电话，我听同学说着喝，</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1647,6 +2083,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>时而变成我在它占据的空间，就小，这个这怎么来小变小了？杜国义。</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>好，那我再请你来往外拉的时候，水会不会变化？你告诉我，</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1674,6 +2120,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>破机提醒，放上，</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1701,6 +2157,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>压缩。那如果去拿补亲的东西举手告诉我，空气呢非常容易被容易被压缩，哎，空气容易被压缩，并且这个压缩后的空气是排气，</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1728,6 +2194,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>那请你告诉我</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>宇宙所有的物质都是由微组成的，我我是是对不对？，我往里面推的候候，往往里面推的时候，这个空间怎么样，在水里变怎么样了，</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1755,6 +2231,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>变小了还是变少了变少，它不它会变少吗？我都做，哎，它变少。对，为什么就站的后面会变小呢？</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,6 +2268,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>你来说你来说</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>，因为微语之间的间距变小非常棒，给他。</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1809,6 +2305,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>再请一个同学告诉我，往外拉着时，他占占的空间变大了</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>那它们就聚集在了一起，所以说它占据空间就变小了。，那说明规定怎么样？面距天气变，</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1836,6 +2342,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10颗呀呀，每个里边都要有，对不对？来继续，</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1863,6 +2379,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>那同学们能不能利用这八个字组成两个成语</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1890,6 +2416,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>那你想一想，这里面会存在哪两个相关联的量呢</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>也就是刚才同学们所讲的一种量，随着另一种量的变化而变化，大家来看一下，倒果汁是不是我们常见的行为？嗯嗯，，</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1917,6 +2453,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>好吃嗯，果果汁是就果汁的水水水位线水位线，那我们就是什么？高高度，那高度和谁呢？还有一个变量是谁呢？果汁的高度在增加，那谁也会发生一些变化呢？嗯，杯子没有成果汁的高度，</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1944,6 +2490,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>谁是随着谁的变化而变化的呢</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>那随着果汁高度的增高，我们在六年级上学期所学的什么也在变，那个大大大果果汁的体积体积也在变好，那我们找到了这两个变量，那一个是高度，一个是体积。，</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1971,6 +2527,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>那大家就很容易的能找到这里存在了哪两个相关联的量</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>就是非果汁体积会随着非洲果汁的高度的变化而变化。好，带着这个知识点，我们来看一道例题，一辆汽车在公路上行驶行驶的时间和路程如下表。，</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1998,6 +2564,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>谁来说一说</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2025,6 +2601,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>随着时间变化的呢，</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2052,6 +2638,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>那大家想一想，它是如何来进行时什么样的变化呢</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>他说路程随着时间的变化而变化，变化而变化。随着时间的增多增多增加而怎么样变问题？，</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2079,6 +2675,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>路程是怎样？随着时间来变化的说明什么问题</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>小时那两小时100150s，那时间在不断的增加分辨的同时，路程也在，所以到了这个问题，，</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2712,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>那有没有同学还有一些想说的</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>找找同学说说他在底下说咱们要有表现的机会和刘耀宇嗯时间越长，路程越长，时间越长。路程也越长。，</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2133,6 +2749,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>随着路程的增长的变化，</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2160,6 +2786,16 @@
           <t>个体发言、集体未知</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>那你能写出相对应的路程和时间的比吗？</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>那这里我们做一个小小的复习，什么叫做比，</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2187,6 +2823,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>好，你上来写一写</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>我说嗯1:80=2一1:2路程和时时间的比谁在前，路时路程在前，那怎么比？嗯，八80，</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2214,6 +2860,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>那我就想问一问了，这里的比值表示什么意义呢</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>那可能也他们的比值都是不变的，比值是不变的那也就是说比值是相同的那这里既然大家说到了比值，，哦，哦，一小时行驶多少千米？它行驶一小时行驶80km，很好，还可以，</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2241,6 +2897,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>你认为对你来讲什么是正比例</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>时间变化，路程也随着变化，当路程和相对应时间的比时度时速是一定也就是速度一定时行驶的路程和时间从正比例行驶的路程和时间适证证明量。从这句话当中，你可以去适当的总结总结，，</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2268,6 +2934,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>要想知道我这一组数据是不是正比例，我可以如何做出判断</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2295,6 +2971,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>他要有什么电话嗯，说这有变化，</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2322,6 +3008,16 @@
           <t>个体发言、独立练习</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>你是怎么知道他们的比值是一定的</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>你发现了什么，他们能说正比值，为什么这么说？他们的比值是一定的，，0.4:1就就等于0.10.4，然后0.8:2就等于0.4，1.2:3就等。那后面的数字大家会填吗？</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2349,6 +3045,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>再找同学去算一算，说一说是二5:2，为什么</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>你是怎么算的？用一是一直是0.4，就是一也没有。嗯，很好，后面一个呢？因为一只是0.45，只就是0.4乘。</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +3082,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>好，那找一个同学说一说</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>那通过一个变化的过程，大家会发现购买的，种子，总价去，那他购买的铅笔支数数量就越多。，你看出了他是怎么样去变化的，谁随着谁去变化的，</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2403,6 +3119,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>来张瑞单价单价</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>它的意义是什么呢，。好，那我们来看一看，随之而来的几个问题，刚才是不是被我们给解决了？第一个填写上表说说总价是随着哪个量的变化而变化的，</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2430,6 +3156,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>练4:1，非常好来说一台怎么写五五笔，5:11.5，有人计较你1.5:51.5在哪里，</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2457,6 +3193,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>想一想刚才路程和时间的时候用的什么设计？</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>现在呢不可以说是吧？</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2484,6 +3230,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>总价比数量等于单价。我在这里写一下，</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2511,6 +3267,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>是怎么样的，一定的是没有变化的，</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2538,6 +3304,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>价子数量的单价一定单价一定，</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2565,6 +3341,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>打开到57页和56页</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2592,6 +3378,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>我们再来想一想，生活当中还会有哪些成正比例的量呢</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>好，很好，那有了这样的一个知识建构，，</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2619,6 +3415,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>还有吗，还有吗？</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>说嗯写作业的时间越多，那个写作业的量就越多，他说我写作业的时间越多长，那我的作业总量就会越多，越多，这是他的一个亲身感受，可能是</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2646,6 +3452,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>你好像挺喜欢下课，下课，这个我们先不做研究，回来再去讨论来。你说上课听的时间越多，学到的越多，上课听的时间越多，学到的多好像不太准吧。</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2673,6 +3489,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>你认为做的套数和用户的米数成正比吗？</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>能能那成不成正比例，那为什么比一定的比谁产生了什么是一定的，是一定的那同样的做服装，</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2700,6 +3526,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>你来说说</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>那您所以说好说找同学说一说说这里为什么那么确定他们的比值都一样，</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2727,6 +3563,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>那个都是那个的那个不是返回讲，不动讲，不动直直接过，一起去玩一下那个，太高级了，还有那个展台，站起来打卡肯定展台，我也晓得那个展台比那个要我觉得要哪的那个，那就是他是大</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,6 +3600,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>我在这个时候要把那个，直用直接点进去就行了。我看那个申诉显示不是出来这个版本有问题，</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2781,6 +3637,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>有没有office？那边应该有了嘛，以后也就可以把，</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2808,6 +3674,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>啊，这边这边这边过来是小聪明，</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2835,6 +3711,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>我们我们四个人一个组哈，我们四个人一组</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>等一下行吗？我先喂个，，比如说这里四个人等一下就是一组，这边那你们六个人就一组嘛，好不好？</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2862,6 +3748,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>这里四个人一组</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>，你们各位少一点，这一组可以吗？那边，</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2889,6 +3785,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>哎，那个也不行，还是</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2916,6 +3822,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>所以说你发现了哪些数学信息？开始请你</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2943,6 +3859,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>真好，谢谢，你来，</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2970,6 +3896,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>嗯，可以你呢？</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2997,6 +3933,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>孩子们，我们习读课题两遍</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>，小事的疫情，</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3024,6 +3970,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>好，那孩子你想说试一试，你请立</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3051,6 +4007,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>完成下面的几个题，谢谢八位。</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3078,6 +4044,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>谁来说？女生请</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3105,6 +4081,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>观察先观察第一幅图，完成第一空。</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>对了，小树部分有两位的小数叫做树呀孩子们对以前的知识掌握的可真扎实，那我们直接来开始我们的新课吧。</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3132,6 +4118,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>很简单，请你，</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3159,6 +4155,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>你说嗯</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>老师这里想问一个问题了，为什么上面的阴影部分可以用7/10？和0.7来表示，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3186,6 +4192,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>说一说，怎么理解</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>那你怎么理解这个0.1呢？动动脑筋，结合图形，？有七段0.1。好，请你开灯你，那个女生，</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3213,6 +4229,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>完成下面的这个题，</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3240,6 +4266,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>那你来说说好，麻烦</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>对，，你再起来一下，那他们的意思，</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3267,6 +4303,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>男孩子来读一读</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>哎，听到了吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3294,6 +4340,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>那孩子们再仔细观察一下，这里的小它们都是，分数有什么特点？</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>结合图形想一想，这些小树它都能有，这样一小格一小格的组成，对不对？这小格是多少？所以它的计数单位就是零一，非常好。</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3321,6 +4377,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>那其中的一份儿二，15份107份各是这个正方形的千分之几呢？请答，千答千分</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>现在局非常的不好玩，1000份，，</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3348,6 +4414,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>非常好，那他们又应该用几位小数来表示为什么有看这道题的要求，哪位同学来帮我们读一读？好进去，</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3375,6 +4451,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>确要求了吗？明确</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3402,6 +4488,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>来一个小愿意上来展示一下。</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>这个很简单，</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3429,6 +4525,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>个要求还记得吗？</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3456,6 +4562,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>计数单位是</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3483,6 +4599,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>你能说清楚原吗？</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3510,6 +4636,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>哪个孩子帮我读一读？你吧。</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>请看邀请，</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3537,6 +4673,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>明确要求了吗？好的开始，</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3564,6 +4710,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>个小组组讨论的非常吸引，这是是非常，</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3591,6 +4747,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>就样的就就是这样</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3618,6 +4784,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>用来表示，10分之几、、</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3645,6 +4821,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>大家看到49页找到这的话，读一读把它精化出来</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>树非常好，老师叔两个大拇指给你好，请坐下。我们的书上就有一段关于小树意义的描述，，</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3672,6 +4858,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>你来给老师老师解答一下</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>好，，</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3699,6 +4895,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>来看看这个动画，来思考一下，现在这个用小数表示</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>你是通过整数之间相邻两个单位技术的经验来归纳出来的，对吧？那我们，</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3726,6 +4932,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>再来，多少个00:01？</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0101就是00:01。好，</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3753,6 +4969,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>百00:01？注意看00:01是这样的一条，这边应该10，以是100零，10个00:01，对吧？嗯，那现在这个小数是多少？点零一，哎，非常的好，</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3780,6 +5006,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>个那谁来说一说小数点起右边的第一个数位是什么？好，你说还</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>，10分位10分位，它的计数单位呢，</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3807,6 +5043,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>可以，啊，你说来来来第一次去场，</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3834,6 +5080,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>下一个数位是，千分位千分位</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3861,6 +5117,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>最后一个后面那个女生学起来看看</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>零的计数单位是0.001，0.001。很好，，</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3888,6 +5154,16 @@
           <t>个体发言、独立练习</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>这个省略号是什么意思啊？啊，还有没有说完，对吧？对呀，那我们再来仔细观察，从右边，往左边观察它的计数单位。你看看，以前整数之间的每相邻两个计数单位的进率是多少？</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3915,6 +5191,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>看要求一起读一下</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>上了这么久的课，我们接下来做一个课堂活动，，</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3942,6 +5228,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>先来展示展示哪个？两个人好</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>孩子们说的可真认真，，你们来说一说，大家仔细听，</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3969,6 +5265,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>也可以，因为两位小数表示，</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3996,6 +5302,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>接着该你的</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>百分之几对你真棒，你真是个好老师。好，，</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4023,6 +5339,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>上来展示展示</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>准备好了是吧？谁来？啊，你，，好，同学们认真听，</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4050,6 +5376,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>这看一下啊，</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4077,6 +5413,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>再说一下，这个是1000，</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4104,6 +5450,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>对吗？对，第二个呢，个四到底是，多少？</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>第三个，第二个都有一点疑问，是不是？是多少？的时候像他一样写的是零点哦，搞了半天，不好意思啊，</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4131,6 +5487,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>那这位同学，你说一说你是怎么数的？</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>像他一样写的0.128的举手，有不同单位吗？有不同答案吗？啊，</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4158,6 +5524,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>你来收</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>今天上给，同子们，发现问题没有没有发现了，，</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4185,6 +5561,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>再上来说来这里这里来说，</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4212,6 +5598,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>那你算算应该是多少？</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>也就是他刚刚属虫的，是不是这个意思啊？</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4239,6 +5635,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>那接下来我们看下一个棋，课本上，第52页第10题上，前面三个</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>这么多以后在数的时候一定要小心好不好？，</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4266,6 +5672,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>谁来说说第一个</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>好，，你的，</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4293,6 +5709,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>后面那个女生</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>对吧？哎，好，第二个，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4320,6 +5746,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>最后那个男生鼻子手指高高的好，就是你</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.127，对吗？</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4347,6 +5783,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>那接下来我们来看一看，小的历史</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>哎，孩子们完成的真好。，</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4374,6 +5820,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>好，我们看一看，这节课你学会了什么？小看你说那应该怎么表达呢？</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>你看古人的智慧，是多么的伟大，我们通过好好的学习，也能超过他们。</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4401,6 +5857,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>我们用课本上的话来说好吗？</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>哦，喂，</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4428,6 +5894,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>山东煮鸡蛋香吗？0.7，0.400.107来表示，10分之几，</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4455,6 +5931,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>就是对了，它的计数单位有，</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4482,6 +5968,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>要牛仔菜，牛仔菜，是幺求是，</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4509,6 +6005,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>然后就是徐涵，不要讲话的衣服，</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4536,6 +6042,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>好，请值日班长们起立上课，重重新来</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>各位小朋友们加油啊，，10来还没回过神来啊，上课，你看值日班长一带铃声音响，其他同学马上着精气神就起来了。非常好啊，同，</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4563,6 +6079,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>我们继续学习课文，九五我们把恩情读两遍</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>今天，恩情恩情恩是前鼻音情，是后鼻音再读一遍恩情好，来，这些词还还记吗吗？我们开组组</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4590,6 +6116,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>好，来你来，哇，第二个，</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4617,6 +6153,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>沐很把声音开好，恩情很好，</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4644,6 +6190,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>非常好，来，再一次，我最后说</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4671,6 +6227,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>谁来读不脱掉的，读来读有感情的</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>里面有什么诗的，而且前面的内容讲的都是诗的关于诗的背景啊，作者呀还有诗的意思都包含在里面，对不对？这首诗这篇课文里面藏着这首诗，对不对？叫什么好，，</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4698,6 +6264,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>咱们一起来</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>啊，对母亲深深的感情已经包含在你的朗读里面了，我们听出来非常好，，游子吟垂背及</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4725,6 +6301,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>我请个同学来读课文的第一自然段</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>，啊，换句来读，</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4752,6 +6338,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>一针针一线线说明什么？，对，针脚很细腻，对针脚就是这个针的啊，针脚真正的，这个母亲啊非常的仔啊，不是一针一线，是一针针一线线，所以我们读的时候应该怎么读呢？请一来试试看，夜深了，</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4779,6 +6375,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>谁来你来读读，看夜深了</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>着嗯，听出来了，母亲的爱都饱含在这个针脚里面非常好。，</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,6 +6412,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>预备起</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>对，这样读啊，就能感受到母亲对孩子的爱了，啊，把这个爱啊，读在这个句子里面啊，通过词语把它读出，夜深了，</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4833,6 +6449,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>他边缝边想，</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4860,6 +6486,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>你就来演母亲吗？谁来演父亲啊，父亲来演梦娇，谁来演梦娇？</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>我觉得你平时心思挺细腻的，啊，你来，小二来背上小书包，对，出远门了啊啊，就是这样子，啊，快说，</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4887,6 +6523,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>来你来试试，你做母亲还是嘉儿</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>是呢稍微有点点小害羞，不要紧啊，？行，可以的。哎，有点腼腆，我做母亲吧啊，没事，以后都会成为母亲的啊啊，再请个娇儿吧。好，你来娇儿。对，</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4914,6 +6560,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>来，李月拉一下</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>你们很好啊，欢迎大家，，</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4941,6 +6597,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>你在家里要怎么样？</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>你可以关照一下妈妈妈妈，</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4968,6 +6634,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>好的，找他讨虑一下，</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4995,6 +6671,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>来你来</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>一笑场不周子啊，人家像熙一样，知道啦，不能笑场啊。好，再来最后一句吧，还有同学很踊跃的举手，我觉得很好，哎，勇敢要做嘉，啊，你来吧，来吧，就拎个包吧，包就拎着啊啊，来吧，好，开始啊，</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,6 +6708,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>有没有想跟妈妈说的，跟母亲说的？</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>知道了。母亲，你看多听话的孩子，妈妈又在家怎么样？你要怎么？高中，</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5049,6 +6745,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>那么现在呢我们一起啊把第一段来听</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>我们反正是一家人嘛，对不对？好，。我相信通过刚才表演啊，你们对母亲对孩子的那种深深的爱，肯定有，你所了解了一些了，是不是我再来读啊？唐朝有个诗人名叫孟郊，预备起，唐朝</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5076,6 +6782,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>好，我们把这句话再来读一读啊，娇儿预备起</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>嗯，非常好吃啊，我们把那个母亲说的话，我们一起来学一下娇儿，你可要早点儿回来呀。你看这是感叹号，说明母亲多盼望娇儿马上就回来，今天去马上就回来，是不是？她肯定是这样想的，是不是啊？</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5103,6 +6819,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>好，接下来第三自然段，我请同学读前面的几句句两句三句，读前面的三句就视线表。</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>感觉又哭出来的样子啊。对啊啊，下次我们更要表很好啊，要把这细节都放好啊。好，董海给我来读，</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5130,6 +6856,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>我们一起读</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>好的，请请坐来。。第一句太阳出来了，预备起</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5157,6 +6893,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>好，汤子成，你说</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>这里面写了一个环境，太阳出来了，他有什么意思？在你里面有没有悟出来一些什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5184,6 +6930,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>你来读，朱子涵</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>还指着母亲啊，就像泰说的真好，孟姜子摸着身上的衣服，注视着那又细又密的针脚，心里想，来里讲了什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5211,6 +6967,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>你再来读一遍</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>会吗？很好，，他心里怎么想的？他摸摸着身上的这个衣服的针脚呢，心里还在想，</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5238,6 +7004,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>沐浴着阳光的小草，我们一起来读</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>你也报答不了，是不是因为母亲的慈爱？太伟大了，是不是非常好啊？</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5265,6 +7041,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>徐国明来试试</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>好，就读说到这里啊。好，那么哪个同学们现在用自己的话解释一下，第一句的意思，慈母手中线好，，对，</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5292,6 +7078,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>对慈爱的母亲，</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5319,6 +7115,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>陈辉来说说看</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>非常好，就是游子就是什么呀？在外漂泊的外出门，远门的这些人就叫游子，非常好。母亲慈爱的母亲啊，手中的线呀，就织成了这个游子身上的衣服。好，那么第二句临行密密缝，意恐迟迟归呢，，</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5346,6 +7152,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>非常好，密密缝对</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5373,6 +7189,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>谁能够把这个句子找出来</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>然后呢啊就是怕孩子啊，回来他就实盼望着孩子呀，早点回来是不是非常好？来，最后一句其实很简单，谁言寸草心报得三春晖就在，这个他的意思就在是故事里面，。那问题，</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5400,6 +7226,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>好，我们现在把书放在桌上，看着这个诗，预备起。</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>好，我们现在把书放在桌上，看着这个诗，预备起</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5427,6 +7263,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>好，那么现在我请同学做个笔记啊，为什么这个他要写这首诗呢？</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>这首诗是怎么？现在明白了吗？明白了，那么是母子，他为了纪念母亲，表达他对情深深的这种感激之情，是不是啊？我来找个空的地方吧，</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,6 +7300,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>贾达的诗人就是指梦江，对母亲，养育，之恩的感激之情。</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5481,6 +7337,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>诗人对母亲养育之恩的感激之情。他写这首诗是为了感激母亲啊，抬起来啊，</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5508,6 +7374,16 @@
           <t>学生齐读、个体发言、独立练习</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>好，下面朗读理解，朗读课文，背诵游子吟这个没问题吧。</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>所以把母亲信其实就封存在，小朋友基本上都能背出来了啊，联系课文内容，说说游子这首诗的意思，刚好我们课上，好，那么接下来呢我们把二制四制复习一下来，翻到53页。梦mpyengpy梦预</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5535,6 +7411,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>N上下结构，</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5562,6 +7448,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>请大家翻到21对21啊</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>哎，小姐帮喝点。今天小朋友上课还是不错的啊，整个说状态还是蛮好，啊，拿到了之后，请大家翻到，21对21啊，</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5589,6 +7485,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>来你来说</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>母亲忙着预备起着对孟娇补衣裳哈，悄章其实就是用忙着去写，看见蜜蜂忙着怎么样。如果你说蜜蜂忙一个采蜜，我这种句子肯定是你错太简单，对不对？，</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5616,6 +7522,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>稍微好一点的叫个弟弟，你不能啊，因为你二年级了，你不能再像一年级小朋友一样太简单啊。他说加了一个地点可以的，，他从忙着蜜蜂，忙着</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5643,6 +7559,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>勤劳的采蜜不对，勤劳的蜜蜂可以的，辛勤的采蜜倒是可以，哎，很好又加了一个形容词，心情很好，辛情的采蜜，</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5670,6 +7596,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>下班，妈妈忙着回家炒饭，可以的，你说，</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5697,6 +7633,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>时候就是准准备食食什么，对不对？你说，啊，也可以，放学了值日生们忙着，打扫卫生完了打扫教室都可以啊，对了，还有呢？那你来，</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5724,6 +7670,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>因为啊这个情况呢，你可以说下雨了，奶奶忙着收衣服，衣服放在外面，对不对？下雨了，这忙着把它收进来了，对吧？都可以的啊啊，下班了，爸爸忙着赶回家，啊，怎么样为我烧菜或者啊烧饭的菜品啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5751,6 +7707,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>后会喊哈，他都会写的那就写吧。</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5778,6 +7744,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>我们一起来把啊</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>，因为这个这个，</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5805,6 +7781,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>咱们一起来读一遍啊</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>腰酸背疼，很好，，竖字读好心狠，手辣，预备</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5832,6 +7818,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>这里面找出描写人的性格特点的成语，年薪，</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5859,6 +7855,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>人的性格特点啊，哪两个词语可以说这个人的这个特点，性格特点，对心狠手辣谁心狠手辣在故事里，</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5886,6 +7892,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>好，来我们先把课文的第一段一起来读一读。请大家把书翻到15</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>嗯，要三倍的好的，还有啦，还有吗？对洗澡他，黑的内练的腰酸背，是不是这些成语都可以说练功的这个情况。，</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5913,6 +7929,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>古时候有个孩子叫沉香</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5940,6 +7966,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>来，谁先来说一说</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>好，那么昨天我们就私了，晨晨为什么要救母亲？第二，自然段给了我们答案。，</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +8003,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>我们把这段再来读一读</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>所以所以你，非常好，讲的非常好，，一天丞香问爸爸，预备起</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +8040,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>我请个爸爸哪个小来扮演一下，爸爸来说一说你来</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>好，爸爸看出来，儿子是随便说，，</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +8077,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>陈香的母亲是二郎神的亲妹妹妹妹，你看这么啊自己的妹妹都被她狠心的压在了画上。所以这里有个词儿叫，心狠好，这个词儿，说明他怎么样？心地不善良很凶，神通广大说明什么？二郎说明二郎神什么？</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +8114,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>来读第四自然段谁来？何雨欣？</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>是不是暗地里也下了决心了？课本里虽然没写出来，但是攥紧这个拳头这个动作就能表明他的救妈妈的决好，接下来陈香做了一件事情了，来请同学</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +8151,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>好，你继续读下去</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>雪好的，来，你听一下啊，这个就是，这个就是他的师傅啊，他师傅也挺啊，像个仙人一样啊，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +8188,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>你继续读下去</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>早早上到大清，早早可能天还没亮就起来练了。晚上天已经很黑了，他在练就说明他练功很刻说的真好好，，啊，这时候寒冬，冬腊月的时候啊，刚刚是啊啊你继续读下去，有时累</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +8225,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>啊，又是作业不要跟作业有关啊，这样不许说是作业的一个问题啊，造句多了，一进</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +8262,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>你来王</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>非常好，啊，对啊，多好啊，这个句子很好来，，</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +8299,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>哦，好的，有动力了嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +8336,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>你来</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>很好，非常优美的句子非常好，我们的生活多美好啊，不要眼前只有作眼啊，知道吧？，</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +8373,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>来你来</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>嗯，很好，你是个爱奔跑的孩子，希望以后在运动会上能看到你啊，为班级光来啊，</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +8410,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>你来就好</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>我的心情就愉快，哎，可以的，非常好啊，有时候我心里有点难过，但我一走进花园，心情就顿时舒畅了，，</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +8447,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>我立刻就被这些千奇百怪动物吸引了，是不是很好？</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +8484,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>来你说</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>就怎么样就睡的，他死了，是不是啊啊？，</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +8521,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>顺顺再来一句对你就是我</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>啊，你到公园公园有一溜冰吗？有的有时候会有的。是的，那你最好讲一个，就是比如说滑冰场啊，是不是？他说，我一看到下雪还有滑滑，是不是好，</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +8558,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>好，现在拿起书本，我们把课本完整的练。那我们来读读这句啊，爸爸一看到预备起爸爸，一看到电视上有就来了</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>时间关系我们就不说了。说到这里，，竞好吧，这个也可以的。好，来认真读啊，读好一遍就过，</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +8595,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>一城乡舅母空1.1，不要城乡救母，一母一是什么东西啊，重来？课文10沉乡一预备起。</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +8632,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>接下来看二回则一下</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>好，。笨笨，笨笨，</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +8669,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>全qpyupyanpy.全y全中间的介母是upy还是upyy？对，因为vpy遇到j遇到j西两点要摘掉，所以当中的介母是vpyqpyupypy全q全辣辣好辣一起，</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +8706,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>我们来读下面的反问句</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>描红写我不说了，读一读这些词语，我们刚刚也读过了啊，不说了，读一读比一比啊，就是这句你才是个八岁的孩子，对，付不了他，这个语气就比较的平。如果变成反问句，这个语气就更强烈。，你才是个八岁的孩子，预备起你才</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +8743,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>气愤，气氛，解救，解救。下面一段心思，爸爸看出了儿子的心思，心思，心狠，手辣，心狠，手辣，</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +8780,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>神通广大，你怎么关照老师的顺序来？神通广大一种，</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +8817,16 @@
           <t>学生听写</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>把三号表打开，我们抓紧默写</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>练就，练就，就是练成了练就就是什么练练成了练成了一声，告诉你啊。好，下面高墙，高墙，武艺，五g好，一共30个，今天抄写在合起来，，扣个八，</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +8854,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>你确定，自己不带东西呢，会造成什么呢？来影响他们，现在几岁？说一遍啊，是这样，子再说，你不能主动啊去提交别人。</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +8891,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>一棵树，施肥，施肥，</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8928,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>施肥，改变，改变，改变，</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8965,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>还理直气壮，你不会问我借，我才发现你天啊不带衬板的，完全给你，</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +9002,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>这个不可以啊，着急，耐心，耐心，耐心，主见，小猴子是没有耐心，没有主见，既有耐心，又有主见，主见，</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +9039,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>第二个，喜鹊，喜鹊，</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +9076,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>杜鹃，杜鹃，杜鹃，</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +9113,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>划蟹的时候注意好好好啊，出来讲话，八个啊，没谁说，上面六个，下面第七第八个啊，下面两个拖鞋，</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +9150,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>今天只有一节语文课，我事情很，</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +9187,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>好，来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>我12:30左右，放在口袋里，不要放书包里，口袋嘛，</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +9224,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>先把三号板调好，</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +9261,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>老师想先和大家来玩一个游戏，游戏的名字叫做大风吹</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>同学们好，请坐，，</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +9298,16 @@
           <t>独立练习、个体发言</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>大胆的去猜一猜想一想</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>他有可能会遇到什么事，遇到什么和你们差不多大，有可能会遇到什么烦心事呢？，来，徐辰他会遇到的烦心事是考试考的成绩不是很理想。</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +9335,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>跟好朋友绝交。哈哈请坐有可能来谁来？贾欣然犯了什么事情？老师批评他，</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +9372,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>那天课间休息时，</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +9409,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>接下来的挨训情景就可想而知了，</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +9446,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>李伟泽，他说那个他把球把教学楼的玻璃给踢碎了</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>谁知道了。来。，</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +9483,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>觉得在老师和同学面前很失败，</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +9520,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>假如你现在是小站的同学，你就在他的身边，看到他这么消极悲观的认为自己你会对他说什么，来。</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>那他真的很差劲吗？不，那徐晨，我会对他说，每个人都有自己的优点和自己的缺点，</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +9557,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>谁还想说，来陈</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>他一定会迅速的什么呀？树立起信心来，是不是还有谁再来补充，每个人都有优点，就算最好的人他也有缺点。</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +9594,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>来贾书涵，不要总是放大自己的缺点</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>我也想当那个同学，我来帮帮他吧。，</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +9631,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>举手来说</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>我却改正，对不对啊？那同学们有没有说类似的经历啊，我和他也有差不多的时候发生过一些令自己感到不自信，或者说觉得自己很失败的时候，有没有这样的经历？，</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +9668,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>语文听写的时候发生什么事了，发生了我因为粗心的小毛病而没有得到全对啊，</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +9705,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>来里面说我那个发生在那个二年级的数那个数学数学测验上。</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +9742,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>就是我也是有一次听写的时候，做英文作英文，</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +9779,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>大家一起来看一下</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>而在进行课前这个调查的时候啊，有两名同学以视频的方式向老师认真倾诉了他们的烦恼。我想他们一定是迫切的，想要咱们替他解决一下，，</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +9816,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>一个叫张一晨。</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +9853,12 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>比如说我和张一晨聊学校有趣的事儿。</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +9886,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>再比如我们三个在一起讨论一件事实</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +9923,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>我明明没有这个意思啊，</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +9960,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>同学们，你们能帮我出出主意吗？</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +9997,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>是不是谁来帮帮他，谁来帮帮他，尝试着解答一下来</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>我看有的同学都已经有想法了，。李佩泽门题的话，那个他爸爸就只有一天时间陪我陪他。</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +10034,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>来请小组展示一下哪个组</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>我们的还还热热烈讨论论。你知道怎么说，一会儿直直接举手也以好吧吧。。李佩德组来。嗯，你们帮助的是谁？先说我们帮助的是薇诺同学好帮助薇诺凡川的樊长，</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +10071,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>同学是他的爸爸，没有时间陪他玩，</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +10108,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>来你来补充</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>行，哎，大家也觉得是好办法，请坐。我帮助的是狄仁琪妹妹不陪你玩，</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +10145,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>我在家里没意思的时候，</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +10182,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>好，请坐还有没有来？等一诺，毕珍同学的凡老师，</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +10219,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>大家可以出声的去读一读</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>不倒翁先生也听到了，你们想不想知道不倒？翁先生是怎么说的呢？一起打开课，本来看第九页，第九页的右上方广说的那一段话，，</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +10256,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>左安芳，你来吧</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>那老师呢也把小贱的优点和缺点都罗列了出来。这种小游戏的方式，罗列出来，想请同学来给归归类来，你你这里来这儿来这儿，</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +10293,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>李嗯，我爸妈之前说我那个动手能力比较强，嗯，了解到自己优点来读书写字。好，写字好，请坐刘佳坤。我跑步快好，请坐来打篮球。好啊，请坐来，</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +10330,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>谁来谁来试着说一说</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>我们以这样的方式来赞一赞自己，珍惜这个机会啊，转发，我要给自己留那点的厉害，就我打羽毛球这么厉害。来贾旭然我想给自己颁美术达人奖，</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +10367,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>来，我想给自己颁优秀舞蹈家奖，因为我跳舞很好</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>，嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +10404,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>还有没有李贝哥又要夸自己了。来那个我我也打算给自己颁运动达人奖，</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +10441,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>没关系，对不好的事儿说不没关系，偶尔尴尬发窘。没关系，最后一个抵达目的地没有关系，自娱自乐的跳舞。没关系，</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +10478,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>丢了手套。没关系哦，</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +10515,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>我们先来看回顾一下我们之前的预习情况</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>好，同学们好，请坐，同学们，今天我们一起来学习调查统计活动。，</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +10552,16 @@
           <t>独立练习、个体发言</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>我们一块来看一下</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>，好看。小小统计员这道题迅速的把题目再看一下，来，谁来说一说做这道题，它的关键是什么？</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +10589,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>那你怎么去找他，所代表的？有几天</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>来，关键是天数，，</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +10626,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>你说一说你做这道题的时候，你的思路是什么</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>根据这个表格，如果是太阳，如果是晴天的话，你？</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +10663,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>然后就是先看第一个横排有多少个，然后接着往下看。第二个横排，</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +10700,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>谁来说一说，你觉得我们买哪两种水果来？</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>老师猜你们除了要去欣赏美景之外，还会带好多好吃的，对，那我们家委会的叔叔阿姨们决定给大家买两种水果。那现在</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +10737,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>他想带苹果和希瓜请坐来请桌。嗯，我也想带橘子，还有柿榴，</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +10774,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>很容易携带。好，请坐来，</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +10811,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>梨跟猕猴桃是吗？</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +10848,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>好，来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>可以做柠檬汁。</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +10885,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>每一桌每一个小组，你们来统交流一下</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>但是我们家委会只决定给大家买几种两种。那我们怎么统一这两种水果呢，，怎么去确定我们最终要买哪两种水果啦，</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +10922,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>你来具体的说一说</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>他说可以用投票的方式，，</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +10959,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>现在来说一说他是什么意思？</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>他的意思，你听明白了吗？你说就是就是他的意思就是说呃我们手里这张表格，然后呢，让小小组讨论的时候，比如说比如说就是苹果，</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +10996,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>如果有两如果两个人打的苹果，后面还有比两个人还要多的，然后就选出第一名和第二名那种，</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +11033,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>啊，你说也可以，</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +11070,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>老师问一问你</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>那，他要我们打几个对方，</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +11107,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>现在拿出你的铅笔开始操作</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>在那标注出来，其他这下知道这个小表怎么用了吧。好，，啊，他后比也小，是他后面也可以，</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8262,6 +11144,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>你需要在其他那儿把这个具体的水果名称写出来就可以了</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>如果表中没有你最爱吃的水果，，</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8289,6 +11181,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>你说可以画证，可以画证。</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>我们怎样把我手里这么多的信息，我们统计到这个表统计表中呢，</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8316,6 +11218,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>来穿蓝衣服？</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>你说可以举手嗯，可以举手。那我们选一种方式吧，我们选择画正字的方式，好不好？好，谁还记得画正字来统计的？它的这样一个具体流程是怎样的？</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8343,6 +11255,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>老师问一问你一个正字，可以代表几票</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>最多的那一组就能够写哦。那，五票五票对吗？</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8370,6 +11292,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>香蕉草莓香蕉草莓，</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8397,6 +11329,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>好，你说</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>好，肖老师上的怎么样，，</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8424,6 +11366,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>一个一个的说苹果有几位同学喜欢，雪梨呢</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>那我们都统先统计一下吧。我们接下来把这个结果呈到我们统计表当中。，</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8451,6 +11403,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>好，香蕉五五五五个五个，香蕉五瓶桃子呢葡萄呢五个五个，其他橘子是几个？</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8478,6 +11440,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>好，再检查一下，一有错误吗，来，你说老师那个雪梨下面不是还有个树，没有，我们刚才已经看了，</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8505,6 +11477,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>来看这个统计表，你发现了什么信息</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>还有没有抽没了没了，，</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8532,6 +11514,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>然后你在前面的说一说桃子和桃子和雪梨，喜欢桃子和雪梨的人最多坐下谁？还有没有发现来，</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8559,6 +11551,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>你说，雪梨和桃子</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>你觉得我们买水果的话，要买哪两种水果，来举手来说好，是不是相对来说喜欢雪梨和桃子的人数比较多，是不是好坐下，</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8586,6 +11588,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>根据这个价格，我们来去看一看，我们要买多少</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>那我们要购买水果的话，我刚才已经知道了，我们要买哪两种水果，我还要知道它的价格，价格，老师已经给大家放到黑板上了，，</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8613,6 +11625,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>你们来讨论一下，我们要买几千克的雪梨和几千克的桃子在，然后在本子上写下来</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>那接下来你们每一这种这一排，你们是一个小组，，</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8640,6 +11662,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>然后你看一下喜欢桃子的同学，有几个，我们买两种水果，就是，选大家都喜欢的水果，是不是我们有两种，</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8667,6 +11699,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>好，请坐，我们的数量有了，单价也有了，你能来算一算，要花多少钱？</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>你说四千克四千克，对吧，八十一，花多少钱？</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8694,6 +11736,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>桃子三乘以三，加上雪梨，</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8721,6 +11773,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>你来说投票投票</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>我可以用什么样的方法，好，你说来投票投票，比如说我们可以用什么样的方式举手举手投票啊，举手投票能继体的说一说吗？就是行为徒的人就举说，</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8748,6 +11810,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>谁能大声的把他的意思再给大家说一说</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>好，请坐来，，虽然大也大声的来，</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8775,6 +11847,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>来，你再说</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>最后看哪个举手人数最多，然后就选哪哪种，大家都清楚什么意思了吗？好，请坐，，</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8802,6 +11884,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>每个人写一种土豆黄瓜茄子番茄和菠菜。ok写好了，写好了是吗？如果没有你喜欢吃的话，那你写一种其他的</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>，来写好之后，用坐姿告诉老师，</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8829,6 +11921,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>谁上来帮老师来数一数</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8856,6 +11958,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>好，来喜欢黄瓜的同学举手啊</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>，你们是每人写了一种吗？</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8883,6 +11995,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>我们再来一遍，</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8910,6 +12032,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>你们没有来，不是不有一个人吗？是四个是吧？不是他吗？</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8937,6 +12069,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>还有几个他手，谁刚才有少投的吗？有，</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8964,6 +12106,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>我在上面写了一百分的一二三四五五个同学还是兑现我们原来的，下什么六杠加八分可以加加的举手，a加加记住了，相当于九十五分以上，九十五到九十九点五之间，谢谢，谢谢你不是吧，</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8991,6 +12143,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>加注己，我要加五分，</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9018,6 +12180,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>现在请你把殖盆骨件换伤，从头到尾认真检查开始</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>难免你的可能都写错的给你怎么样了？答，对了，这个时候你要把错的这个准备样自己要印正过来了，听到了没有？所以现在你的桌子上试卷的最后栏，，</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9045,6 +12217,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>其他自己擦自己的杨婉玉，不需要去沟通啊</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>听到你发出其他的声音啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9072,6 +12254,16 @@
           <t>独立练习、小组学习</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>自己检查完了，然后工作交换检查工作交换检查</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>。交警组长啊工交完检查之后，再把直接交给我，毕老师现场来检查过关。好吧，这样的话快一点，也就自己检查。第二，工作检查工作检查完之后，在家里，</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9099,6 +12291,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>这个不需要蛋糕，</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9126,6 +12328,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>欢迎你语文组长就好了。语文组长直接交给我们，</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9153,6 +12365,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>不需要，不需要需他给糖，自己自己先吃汤，</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9180,6 +12402,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>到现在你这个，要知道这以，</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9207,6 +12439,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>不需要给你，</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9234,6 +12476,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>不符合规范了吧。政府，你现在符合。</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9261,6 +12513,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>看一下我们今天这节课的示，</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9288,6 +12550,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>接下来呢老师先请同学们，再一次走进我们的二楼劳动时间，机器农序园去转一转</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>好，。</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9315,6 +12587,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>就是呢他那个，然后也很整，嗯，然后呢风吹动着那些树叶，大家看起来，</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9342,6 +12624,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>好，请坐来，谁再来说一说</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9369,6 +12661,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>尤其是我们这样春天这样一个生命力特别旺盛的这样一个季节，在我们的农区园里面有这么多的植物，</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9396,6 +12698,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>不对不对？还有吗，</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9423,6 +12735,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>还有没有给你留下一定的影响</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>看完视频之后，，介绍了嗯生机勃勃，</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9450,6 +12772,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>披肩。你有呃鞋子的时候，</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9477,6 +12809,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>这些需要我们小组内心设计的</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>哎，对，注意这个名片的美观，。还有，</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9504,6 +12846,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>你们，现在就按照座位，一个小桌是一个小组</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>我们这样啊，嗯，我们先暂时这样安排，</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9531,6 +12883,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>一一个一的，</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9558,6 +12920,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>现在赶紧决定按照上面的这些顺序一个小组，你写一份儿就行啊，一个小组写一份儿就行</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>，仔细不公正一点，</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9585,6 +12957,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>好，我们把它们放到一起，大家来感受一下</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>请陈述的签比较清新柔和治愈他和这个第一幅强烈的对比，是不是完全不一样的感觉？，</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9612,6 +12994,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>可以举手说啊，</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9639,6 +13031,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>在摄像盘中可以有很多个的对比比较弱的颜色，</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9666,6 +13068,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>我们一起来读一下吧</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>就是它的色彩属于一类颜色，好，这是我们这节课需要了解的两个概念，一个是临近色，。我们先来看一下文件色，我来骑个头，大家一起来读一下啊，在摄像环中开，</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9693,6 +13105,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>大家看一看这个里面有什么颜色</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>我们再过来接着看，这个是一个秋天的一种金黄色的一个景色。，</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -9720,6 +13142,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>主要就是一个橙色，这样黄色这样一个颜色，还有少量的天空的颜色，</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -9747,6 +13179,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>就是一种夏天的非常绿的一种色调，这个里面是不是有很多颜色的绿是嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -9774,6 +13216,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>这个是春天开花了的这样的色色，还有白色，春天开满了粉色，红色的花，</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -9801,6 +13253,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>我运输的一个紫色对，</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -9828,6 +13290,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>大家想一想，如果我们把这个门票呃用上一个瓶盖的颜色是一种什么样的感觉</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>比如说这是一个开幕式的门票，，就是很死板很单一，对吧？对，这样我们可以让它里面有很多的层次的变化，</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -9855,6 +13327,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>这也是一个在平面设计当中色彩的运用，</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -9882,6 +13364,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>我们来观察这一组图片，让大家看一看</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>我刚才说好，今天说的就行了，我们来看一首梵高的梵高的色彩，梵高是一个色彩的大师，，它主要运用了什么颜色，它是一个它是一个什么色调，</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -9909,6 +13401,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>你看看我们从里面能找到多少数据</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -9936,6 +13438,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>比如说这个里面的绿对吧？但是面积不要让占占到太大的比例，其他的颜色可以用，之前，这是梵高的一个自画像是上清楚，</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -9963,6 +13475,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>很高。有一个上诉人，我们看一下，这是一个什么颜色的，</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -9990,6 +13512,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>可以用一些深的黄色，棕色浅的可以用柠檬黄淡黄的棕黄等等，这个里面大面积的都是黄色，但是里面又有非常多的变化，都没有进去，还有一些水彩画的感觉，</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10017,6 +13549,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>还可以选择一些蓝色调，或者是一些粉色调，紫红的搭配，还可以选择一些黄橙的搭配，里面的色彩是怎么搭配的，</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10044,6 +13586,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>思考一下你怎么运用颜色来搭配你的画面</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>。第一四号好了之后，我可以开始在你的这个画面涂上颜色，对，就直接在这张纸上画，大家不用提稿，就直接在这个稿里面。对，</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10071,6 +13623,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>大家可以在背景不同的色块里面找一些小片啊</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>在这个背景里面有一些线的分割。大家看到没有？这个背景里面的线的分割就是可以让大家把这个背景进行一个变化，不把背景调成一个颜色。，</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10098,6 +13660,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>首先你来确定一下你画面的一个色调，然后考虑一下需要用什么颜色，用同类色和变色的方法，把这个画面的颜色，试可以在你的本本上试一试，</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10125,6 +13693,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>确定好了色料之后就可以涂颜色了</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>，可以一边涂一边变，</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10152,6 +13730,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>可以你把可以可以原的，可以把它当们发布的，或者可以啊可以，和饭就可以，</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10179,6 +13767,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>可以改变改变树干的啊，这种棕色也可以，现在就是可以，</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10206,6 +13804,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>大家可能可以再看一下，</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10233,6 +13841,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>有问题可以提找，</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10260,6 +13878,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>我的饭的时候就涂完了，</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10287,6 +13915,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>是一个相当你是一个的评论家来点评。你想说的话，他用了什么色彩，怎么搭配的，</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10314,6 +13952,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>夕阳的那个粉红色的时候好很好，请坐这几个色的搭配呢，搭配的在一个统一的色料里面，并且还有一些不同颜色的变，</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10341,6 +13989,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>我认为他们比较好的达到了一种比较统一的色调，并且有一些次的变化。呃，总总体来说，大家涂的还是有一些慢太小心了。我们涂颜色会大了一些，快速一点，快时间来看，</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10368,6 +14026,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>再来说一下</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>注意宣是左右这个词要认真审题。好，请坐简。，</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10395,6 +14063,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>不是整点开放的。好好，请再来说一下，</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10422,6 +14100,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>我们分组来读一读</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>马向阳对这体现了句子的准确性。那么来再看一下作者形容的花开。我们跟着图片呢，一起感受一下作者笔下的花开。来一组，请读凌晨，</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10449,6 +14137,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>再看一下这几句话，你发现了什么？先思考一下</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>约美是不是？嗯，那我们来看一下，，</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10476,6 +14174,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>自己先默读一遍</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>那用拟人的修辞手法呢可以让句子更加的生动形象富有美感。作者的描写方法非常的好，对吧？我们可以借鉴他的来课下写一写你喜欢的花，那我们写完第一自然段呢再回到课前的这道题，，</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10503,6 +14211,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>来，王浩文，</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>课前呢这道题我们出现了两种答案。现在来想一想，刚刚的表格有花有时间有花开放的样子。那到底哪句话是关键句呢，到底哪句话是关键句呢，</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10530,6 +14248,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>谁来尝试一下，概括我们要语言简洁，又能说出本节本段的重要内容</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>能不能借助关键句来概括一下。第一，自然段的大意呢，。先来概括一下，哎，马，</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10557,6 +14285,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>你再来尝试一下</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>来谁再来数一下，可以再来说一下，马小平已经回答出来了，对吧？。很简单，</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10584,6 +14322,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>谁再来说一下这么简单的题啊</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>非常好。，</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10611,6 +14359,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>我们先来说一说要求谁来给大家读一读</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>好，那么我们这个这个这一自然段呢，是需要咱们小组合作的。在小组合作之前，，代李婚姻，</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10638,6 +14396,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>请再来读一遍</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>好，请坐，一定要明确要求啊，李博轩找一找，</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10665,6 +14433,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>现在给大家五分钟的时间小组讨论可以在你的书上圈一圈画一画</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>就是第一步把关键句圈相关词修改整合，，把那句话可以写到，本上自己尝小组讨论一下，</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -10692,6 +14470,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>来李雨涵不同的植物</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>有不同想法吗？，关键就是不同的植物，为什么开花时间不同呢？再读一下这篇这一段找一找，到底哪句是关键句不同的植物开始不，</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -10719,6 +14507,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>还有一个谁再来找一找。邱浩轩</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>好，坐下他的回答不完整，还有一个自己再来找一找，，</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -10746,6 +14544,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>哎，王建琪</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>还是他举了一个例子来，说明他是答案，还是举例子说明了，对吧？那我们想想，除了和那开花时间不同，还和什么有关系？注意老师刚刚提有的还有的那另一个答案应该在哪儿呢？，</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -10773,6 +14581,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>你们小组讨论一下，如何把它整合成一句陈述句</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>那我们找到了关键句和相关词。现在呢再给大家一点时间，，概括一下这个自然段的大意，我看看如何把问句变成陈述句，结合相相关，</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -10800,6 +14618,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>大家谁再来说一下，谁再来说一下，一定要声音洪亮</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>声音再洪亮一点，好，请坐他的声音有点小，，哎，王浩文不，</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -10827,6 +14655,16 @@
           <t>个体发言、多人展示</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>好，可以来你再来说一下哪个小组再来说一下，来有没有躲，</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -10854,6 +14692,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>来王子涵</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>好，谁再来说一下，请坐，，</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -10881,6 +14729,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>王梦泽来</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>来谁上来试一试，接下来试一试，，</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -10908,6 +14766,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>现在打开咱们的平板，先默读，再选择，想想关键句是哪一句诊段是围绕哪句话来写的</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -10935,6 +14803,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>我们来先读一下这三段缸里的小虾</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>有同学选择的是a小虾的活动很激烈。，</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -10962,6 +14840,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>这随机它找出的关键句是看楚，</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -10989,6 +14877,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>注意概括原样简洁，谁来说一下啊？于子涵</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>来，我们看一下这节课，他导出了关键句，最后的相关词。现在谁能来概括一下这一段话的大意，结合它的关键句和相关词来概括一下大意，，</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -11016,6 +14914,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>来，这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>会有很多梦想，那是什么梦想呢？你要把这个说出来再听一下别人的回答，谁再来说一下，可以再来说一下，自信一点儿没关系啊，来，杨子轩，</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -11043,6 +14951,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>你的语言还可以更简洁一些哈。请坐你再来说一下，可以再来说一下，</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -11070,6 +14988,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>好，请坐，谁再来说一下来，邱浩轩，</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -11097,6 +15025,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>好，其他同学谁再来说一说来</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>我们可以把第一个第二个第三个去掉。李文一，</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -11124,6 +15062,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>好，请坐请再来说一下</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>，他的看一点还可以更简洁一些。来，刘轩，</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -11151,6 +15099,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>把一只什么的是不是都是形容词，能不能去掉呢，</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -11178,6 +15136,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>听到好，你的声音有点小，下次声音洪亮一些就更好了。还有吗，还有同学来说一下吗？</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -11205,6 +15173,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>请李子彤给大家三个空格来读一读</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>，面向一个方向，</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -11232,6 +15210,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>现在我们把目光回到教室内，看这个问题一起来读。</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>如果迷路了，如何辨别方向？好，请坐这三个问题，眼熟吗？眼眼熟在昨天的课前的时候是把三个点给大家了，大家回家逻辑一个思考，对不对？很好，</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -11259,6 +15247,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>现在我们可以小组合作，老师给大家三分钟，大家开始完成我们的任务</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>你的电是什么？写一写，把结论写在任务单三分好，现在任务清晰了吗？请坐。这个，</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -11286,6 +15284,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>你先说一说好，请坐</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>左面是北嗯，他辨认的方向有没有和辨认方向不一样？同学，你跟他变的方向不一样，是吗？嗯，哦不太清楚。那，</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -11313,6 +15321,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>韩宇飞，你前面来再给大家说一说这个方法</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>爸爸话真好，这个方法除了我们面向冬季度之外，相关是不是就可以用了？那谁听明白了方法了，把这个方法给大家再说一说，这么好的老师们再说一说。好，，</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -11340,6 +15358,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>你像老师这么简单</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>东和西是对着的那我们的后面就是西，然后跟随王荣一说的，他们是按顺时针方向来转的，那么就是东东东，在哪儿？ok，</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -11367,6 +15395,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>韩宇飞，你你这次听清楚了吗？来请你来再把这给大家介绍一下</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>不是不是二十多人了，对吧？南西北嗯这次听清楚了吗？今天来，请认真听。一会儿我烧烤你们哟嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -11394,6 +15432,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>来，我们一起试试啊</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>就是说白了它就是确定的东嘛，东南西北，东南西北顺着方向就是东南西北。嗯，听明白了吗吗？这动作还特别的整情，，</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -11421,6 +15469,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>来辨别一下</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>你掌握的好吧，，我们不向着了。现在当你面向南方的时候，看看你其他的后面十着手指着你的后面，你的左手，你的右手会指向哪些方向呢？</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -11448,6 +15506,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>你来判断一下王喜涵</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>谁能接受被你们埋了，。你来说，我们现在没怎么啊啊，这是东，这这这是西，</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -11475,6 +15543,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>朱雨彤，你来说</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>把刚才的内容完说一下。，</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -11502,6 +15580,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>给大家说专难</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>注意我们现在面向哪个方向，你就转到哪个方向，，然后，</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -11529,6 +15617,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>最终然后一发息。那后面呢，</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -11556,6 +15654,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>好，现在我们一起面向南方</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>那我自己说的也没什么反对，刚才是过大家说你们判了吗？，我们一起边伸手边说啊，我们现在集体面向南方，我们的前面是东南，我们的后面是北，</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -11583,6 +15691,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>来，七把这个问题大家读一下</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>接下来呀，我换一个方向看看，用刚才王一说的方法能们能辨别出来好吗？，记住这个问题吧，请坐十七，</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -11610,6 +15728,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>你和你的同桌两个人把这些指指说一说</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>哎，那现在你面向西方，，</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -11637,6 +15765,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>先给大家说一下</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>来拟词，，看前面来吧。你在那个角落里头就可以看不到你了，</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -11664,6 +15802,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>现在两个人之间把刚才的方法再说一说</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>请问刚才在两两合作的时候，有没有出现错误的同学，有没有，没有那这个方法？，一会儿我要出去。你好，</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -11691,6 +15839,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>把你的答案写在你的作业本上。</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>好，有两位同学有两位同学现在平滑是不能用的。把你的答案写在你的作业本上，</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -11718,6 +15876,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>我去买一个小孩的，就这样好了。还有四个同学，三没有提交，就是李老师，啊，我提交了，</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -11745,6 +15913,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>那么我想知道这个位置，东北东北，它的名称和它的位置有什么关系？</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>指南针上也有八个方向。我们可以看到指南针，红色指针指向的是北北。</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -11772,6 +15950,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>来刘兆，你说</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>还要举手啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -11799,6 +15987,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>来来说说它的名称和位置有什么关系</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>容易出现歧视之间是所有的这个区域都是东北能清楚吗？啊，所以我们要注意用词。那接下来小兔子不想在这儿转了，我到了这个方向上，这是东，</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -11826,6 +16024,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>接下来小兔子蹦到这里了，它的名称和位置有什么关系呢？</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>李泽轩，你说东和南之间的都难嗯，这次用词是不是特别清晰了，是它之间的位置。请坐。</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -11853,6 +16061,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>请安佑西把这个给大家读一下</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>其实这个问题是不是我通过看图就能解决掉了？好，这个问题相对来说比较简单啊，那么既然说到了指南针，老师也带来了一个小小的知识。我们一起来看一下，好，，</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -11880,6 +16098,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>来号园前面的呀，</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -11907,6 +16135,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>先把其他几个好销补上。</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -11934,6 +16172,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>哦刚看到有同学是点不开我们的这个空的点不了的同学，你就在本上写吧。</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -11961,6 +16205,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>我们一起来看一下</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>刚才我下去的时候有同学填的啊。对，有同学出现了一些情况，，</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -11988,6 +16242,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>那现在我们来认真听一听这位同学是怎么完成这幅图的出来</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>。因为前面是东零，所以是东和西是对的，所以东后面就是西，然后东的左边就是东的左边就是然后后年他希望这么做，</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -12015,6 +16279,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>他在变的时候变得不清楚，</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12042,6 +16316,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>好，李佳泽，来</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>谁来帮帮他啊，帮他把他的辨别方法说清楚。，</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -12069,6 +16353,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>对，对面就是西东西，恭喜东南，西北是按照顺时针进行的最东南西西北，东北和东之间就是东北，东和南之间就是东南，</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -12096,6 +16390,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>刘景辉，你来说</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>所以我这面是这面是好，还有没有其他方法，，看蚂蚁洞，那你接下要怎么看蚂蚁洞？我这刚刚好有个蚂蚁洞，</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -12123,6 +16427,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>按照方法填在这上面，好不好？下课了，小组的在上面。那么在石家庄，我们这样一个特别有意思的城市，它的命名的街道命名和方向有什么关系呢，我做汤姆，</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -12150,6 +16464,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>你来说有的是路，有的是哎</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>你有什么发现吗？张玉浩，，</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -12177,6 +16501,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>你，我，今天中午休息的情况啊，个时间没关系，</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -12204,6 +16538,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>带的意思就是说你有一道题做两道题，也就是说问不出来，</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -12231,6 +16575,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>我上面东西给你提交，每个方，</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -12258,6 +16612,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>你有没有同学把每到300？</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -12285,6 +16649,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>后来我们还围绕作业本上的一道题展开分析什，我让我们同学去找，这篇文章当中，他做了一篇科幻小说，我让你去找他。我是马上我比之前还专门找了一些具体的，要努力判断哪些句子是属于，</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -12312,6 +16686,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>他是一位，工程师啊工程师等于说他其实日常生活是比较，他都是靠就是说白天工作到了晚上回家去之后的话，然后就是坐在，每天进行，大概一个写写多少数量？两小时，然后机场。</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -12339,6 +16723,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>的一种比较常见的写法。这边，昨天让大家把伏笔跟铺垫进行了一下区别。电池，不是耐的金字卡的电池下面是一个，伏笔跟书店的区别在于伏笔，它应该属于暗示。</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -12366,6 +16760,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>你必须要把整文章读完之后，站在全部的角度来讲，可能才会看出来这是属属。所以这这种刑法相来讲。但在小说里面的话，不必太出现的。我们小说里面有三样事，一个是妇事情节，一个是人物形象，还有一个是，</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -12393,6 +16797,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>如果你认为这篇小说主人公是我的话，首先你的理由是什</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -12420,6 +16834,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>他感受到生活的什么</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>而且我受到他的影响，我的改变是非常大的。具体表现在哪一方面的改变？对，是对生活，而不是对工作啊，是对生活的态度发生了非常大的改变。由原先觉得生活是灰色，后面。</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -12447,6 +16871,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>别的来说一下，知代理，</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -12474,6 +16908,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>我由原先那一个对于生活消极的消沉的一种态度，转向了能感受到生活的美好表达什么主题？</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>你现在还在做事情下姑娘精神品质，影响社会。我正是因为受到了姑娘，她的影响。所以</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -12501,6 +16945,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>他为什么作者为什么很刻意的去通过写？我受到小姑娘的影响，变得开始去感，受到生活的美好。可见，作者想要向我们传达这，</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -12528,6 +16982,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>他通过我对于生活态的一个转变表达什么？主，</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12555,6 +17019,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>开始不断去思考他的遭遇，并且在文章就我们摄，不管他走哪里，我感觉他都离我不远，说明他心里已经时时刻刻把这个小姑娘挂，啊，所以这个杯子是具，没有，</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -12582,6 +17056,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>你觉得什么叫英雄？</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>我们在那克国伟大的类里面面也接触了这个概念啊，他说他是他们是一群英雄。那整个这两篇我就这样来排，就隔一下那一个伟大悲剧，随便带着他的眼睛。我们因为</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -12609,6 +17093,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>你把这两个人物，一个是他一个是这一起四哥哥睡，他们身上共同的处织者在一起啊，英雄的，</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -12636,6 +17130,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>有责任心，那就有担当是吧？</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -12663,6 +17167,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>建业同学还有吗？</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>建业其实就是有责任的啊，勇敢，勇敢就不畏呀，勇敢跟畏一样的勇敢就不怕。还有没有？</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -12690,6 +17204,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>包括刚刚同学提到的说他是为人类的事业，也可以这么理解。英雄他往往是具有一种心怀天下、心怀苍生的一种胸。他的胸怀是为人类，</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -12717,6 +17241,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>没有有曾经有过是吧？他也是个很负责的，一心想要去赚钱，去卖车的，就是去追求一想过一个独立生活的，但他有没有有牺牲精神，包括有的在一个领域有贡献不成，什么在哪里？</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -12744,6 +17278,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>你给我举个具体示例</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>这个主人公尼诺船长算不算英雄？上不算。上，像不？如果你觉得帅，首先这个品质它有的是吧？这个责这个责任有担当呢，也有这些精神呢，没有有没有有有没有有，</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -12771,6 +17315,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>好，来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>结果把太阳作为放大器的话，能够通过太阳的辐射，将那个电波的那一个强增大，结果意外的将一个电波发射向了，曝光年以外，好像说10几光年以外还多少？光年，人大是，这个。</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -12798,6 +17352,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>我的，你的手，我们，</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -12825,6 +17389,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>这一天是，第一个张，</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -12852,6 +17426,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>多年碎间，经过经历，第二个并不可得的性质是为，听到，你这个写的太离谱了，你是什么？最好？最后还有呢</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -12879,6 +17463,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>怎么可是能怎么能？根据，自己知道的道理，我就敢，多了吧，怎么可以根据自己知道道理？主观判断，呢？好喝吗？啊，这个例断解释为主观判断，</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -12906,6 +17500,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>快速把这个黑板上把屏幕有再看一下意思么？</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -12933,6 +17537,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>这个下流是一种很业务的，就是他的非人，居下有才的呐喊转了，下游的是河的下啊，是是河的下。所以应该是，选b项，第五大的进行，就超越了，</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -12960,6 +17574,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>速流肯定是速流，就是逆流啊，速流就是逆流。</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -12987,6 +17611,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>把这话说错点。好了没？</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -13014,6 +17648,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>这么个月了，主要为了几个字的意识，快速的把来，就记录那两道题。</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -13041,6 +17685,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>你在哪一次没过？</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -13068,6 +17722,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>声音大点。第三口放镜里面是一很好的时，</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -13095,6 +17759,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>来这位同学,你来补充</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>应当啊衣服应当后面短前面长，</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -13122,6 +17796,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>所以为什么让你把我有些文言文句子背下来，背下来，你起码好想一点及鲁肃过去一样的，等到最这集呢？</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -13149,6 +17833,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>第一点原因，因为他制造的衣服长不耳宽宽窄都非常，劝序下沉。这是第一点。第二点，一般的裁缝他衣他只是去关注到这个顾客他的身体的尺码，但这个材质它关的，关了什么？</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -13176,6 +17870,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>这个我们这边写了那个太空影日的，</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -13203,6 +17907,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>特别下应该是第二起嘛，必须要是吧？</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -13230,6 +17944,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>定制好之后放到120e，完成必学，二必学四任务，一跟任务二，</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -13257,6 +17981,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>完成预习二、预习四任务一任务，二一共四道练</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -13284,6 +18018,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>第12的第二句第二句话就是，</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -13311,6 +18055,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>担这个子已经好几次了啊，子，</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -13338,6 +18092,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>然后后面就选择题选a下，选a吗？他选a对啊，选a，a像这样都解释为，探究或研究啊探究或研究看一下b项溯流的溯是逆溯本求源的溯的，</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -13365,6 +18129,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>一个是解释为停止另外一个日三竿太阳已经升到了30竿头，升到很高的地方啊，所以第二个日的理解，所以是经地下一老河边闻之的闻解释为音后面举世闻名的闻呢，</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -13392,6 +18166,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>这个神态自信的神态是，</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -13419,6 +18203,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>就是这这应该就是一种笑法，就是一种爽朗的想法。心里心里的话就是觉得这老婆听他说到这个话很明显是有，</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -13446,6 +18240,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>的啊知道的道理进行主观判断，一定要联系生活经验，不能主观的去猜想判断一定要珍系生活经验，所以这边是什么？导致它会有偏差，记下缺乏实际的生活经验。在我们线上缺乏实，</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -13473,6 +18277,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>读一下啊</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>，他说，学渣，讲学家示意带着负责态度，对讽刺了那种只有理论空发议论，却得不到真实见解，还以什么什么家称之的人。然后现有很多专家讲究在队里面，他没有实际的一个生活经验。</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -13500,6 +18314,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>搜查一下青与爱青与爱麦，你要我吗？</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -13527,6 +18351,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>西凌波不过横塘路，宋贺祝为拜期，岸。</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -13554,6 +18388,16 @@
           <t>学生听写</t>
         </is>
       </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>今天是要默写论语和语安</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>快乐全气球，一船人草满城，的老师，被的时候还能投胎才看我被医院，再给大家最后一个晚上时间，，咱们一起来看一下，时尚先来，</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -13581,6 +18425,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>剧院的外门倒塌，再回接下来进来。d，</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -13608,6 +18462,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>大安诺尘烟的烟什么意？这个烟,</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>20寿，并这个并什么意思啊？哎，很好，请坐，大安诺尘烟的烟什么意？这个烟，</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -13635,6 +18499,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>接下来杨旭来翻译一下月10余岁生物，经常修这句话</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>一起沉默于此。一起沉默在这里啊，好不好？请坐，接下来请月11岁，越11岁，还有很好经过，，金木石，还经过10多年，然后呢，</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -13662,6 +18536,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>接下来请那个子怡来翻译一下，求20寿于水中什么意思？</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>分人募集前台重修寺庙，接下来球20寿于水，中球是，爱寻找，</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -13689,6 +18573,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>到，哎，好，接下来消消孩，以为是留下一集，</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -13716,6 +18610,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>以为这是以为以为是什么意思啊？认为谁认为，哎，这个一定要把主语补上去，僧人们认为，</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -13743,6 +18647,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>折好赵树小周这个赵是哪意思？划船本来是什么意思啊？</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>顺着河流下去了，对吧？好，请坐，接下来</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -13770,6 +18684,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>接下来第四组听我的啊</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>词划船啊，接下来若文叶，拖或者拉酵树小舟叶铁爬，随时与你无进一起翻译词。</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -13797,6 +18721,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>僧人们于是划着礼拜棋，的话，</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -13824,6 +18758,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>我就随便喊，我说喊一就第一第一组喊四就第四</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>哪一组回答啊？，摄照第二步，要看一下哪一组反应更快的，射管，</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -13851,6 +18795,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>作为小组代表，告诉我，这摄，</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -13878,6 +18832,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>你这些人很好，耳背不能遮住</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -13905,6 +18869,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>高兴的，是我终感受的那我接下来听着，翻译而背不能</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -13932,6 +18906,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>随手啊举手回来，这还有没有其他颜色？</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>那现在听清楚我的问题，我们学过，是的，还有没有其他的意思？我们学过的，最最简单的袖袖子，是那个叫什么？我是老师，这个事就干嘛？</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -13959,6 +18943,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>判断词就是是的那还有一个是不是我我现在学学的这的意思思啊，接下来再来，是非木肺的木肺啊。</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -13986,6 +18980,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>我看到是宁泽宁泽木，啊，接下来再翻。欢迎你是非是非，</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -14013,6 +19017,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>接下来告诉我，听清楚了，告诉我，这个字，怎么念</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>张峰，老师还，老师打给小，加，油哎，喜是怎么的意思啊，启能呢就是怎么能好，</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -14040,6 +19054,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>你走啊喂走，我们说123，开始123，会唱儿子，他他会唱歌，喂，翻译喂，</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -14067,6 +19091,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>我们一起来想一想，看违解释违背的意思</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>张峰已经说出来了，我已经我是我们有哪些成语，是这个是念第二声的，</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -14094,6 +19128,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>请同学，上来写一下烟字，这个明泽写啊</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>哎，抱枕就是洪水啊，但是一涵不能看书啊，其他同接下来，接下来你知道不？有问题啊，，林泽，给兄弟儿一点直播，来，</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -14121,6 +19165,16 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>让大家写一下字</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>，大家一定要注意一下烟字，上面写的是，右边的上面写面写一个好爸</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -14148,6 +19202,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>的那是印刷，因他贴着，但你这样子没有问，有问题，这个我讲过了，真以希望同学们都要所以你想告诉我烟是什么意思，哎，很好埋没张真，为什么快？接下来是，不易玷污的，</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -14175,6 +19239,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>我们被洪水。这是因为，石头的特点是右，又重山的特点是又重又轻。拜拜拜，马在山上，石头石在山上</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -14202,6 +19276,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>是非，非，岂能为道长？之去，在实现，千，杀尽松，烟云沙上，剑神剑身，</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -14229,6 +19313,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>你应该是哪里找实效啊？</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>所以这个讲学家的观点，</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -14256,6 +19350,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>那最后有人又又来发表表观观</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>在河流的原地长，那么这组成功了吗？没成功。，个个人是那些猫问老河兵是一个什么人？张斌是谁？</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -14283,6 +19387,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>你一句一句来看，这个呢长是比较长，但简单还是最简，一、老河冰之，</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -14310,6 +19424,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>你就直接翻译为老何并没有关系啊，了这件事又</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -14337,6 +19461,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>凡是，河中，抖，音抖音，我爱你当当当应该什么意思？叮当，当求之于上流一般应该是什么？这段话应该是</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -14364,6 +19498,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>因为怎么样？因为实性接受同样的翻译，是右翼，沙子呢？又轻，水不能冲。水。哎水不能把石头冲能冲石石石，反击，他骑什么？骑士</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -14391,6 +19535,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>还有没有补充好，来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>其应该是水，应该是什么？水撞在石头上，石头有，对，一个个，然后我就那个10min给他一个看，最后令，对吧？所以新之可以怎么翻译啊？</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -14418,6 +19572,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>水不能，水不能冲走但他，但是他撞击石头返回的冲击力，水，不能冲走石头，但它，撞击石头返回的冲击力b，</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -14445,6 +19609,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>一定会到在坑洞当中，</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -14472,6 +19646,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>如应该是如果还是像，像像爱像，然后是不是这样呀？是就是这所以合起来就是，像这样，那如翻译为像的英雄，你曾经</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -14499,6 +19683,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>其实大家都知道一句话，一日不见，就一天没见到他，好像过了三年，多年了，对如实，</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -14526,6 +19720,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>告诉我哪个是引水处？</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>就这样看，水从这边这样流下来，撞到这里，一部分的水又反弹那</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -14553,6 +19757,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>本人是从犯诉由以上，于是就反而，逆流而上啊，逆流而上，求之下流不颠，不呢什么意思？不然固然对很好，固然是很荒唐的。求知地中</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -14580,6 +19794,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>寻找的不是更荒唐吗？如其言，像妈所说的果得于数里外，在</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -14607,6 +19831,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>得于数里外又是一。他真正的语句</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -14634,6 +19868,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>我得榆树里外的真正语句是我于树里外，得什么啊，果树里外得，</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -14661,6 +19905,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>但河水冲击时候返回的冲击力，</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -14688,6 +19942,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>面山，为凯旋，越冲越深。是那当洞延伸到石头底部一半时，迟到必定会倾倒在风暴雨，势必导致凯旋中。势必导致，像这样多次，</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -14715,6 +19979,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>不是概念，石头又会多次向前翻转，</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -14742,6 +20016,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>好，来，这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>不存在转，是受法院逆流而生，</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -14769,6 +20053,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>少年，未返流觅少年，</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -14796,6 +20090,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>人我得余数里外如其言，以外。好，接下来还有最后一句，最后一句明显就是一，吃了一个吃了一个，吃了一个，哎，过程作者是纪晓岚，那我们看一下纪晓岚，然则什么意思？</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -14823,6 +20127,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>不知其二者多矣，哎，不知道其中另一个方面的人，多了，所以你告诉我这里的者人但知其一，不知其二者歌者是吗？歌人，这是个人，可知理亦在于</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -14850,6 +20164,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>前面还有个可这，是一个反问句，还是普通疑问句，我把问题，但是用反问这的句式来翻译一下，</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -14877,6 +20201,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>非常好，难道可以根据某个道理就主观臆断吗？这个鱼就是一个，这是一个</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -14904,6 +20238,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>这个鱼其实</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -14931,6 +20275,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>老河滨老河滨、老河滨和和那个，和这个谁和这个蒋家为什么他更能得坐成心呢？知其叶夜苍啊，它是既知其一，又知其一，其二其一是什么？其二是什么？鸡是什么吃？</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -14958,6 +20312,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>直性兼相，互不性接</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -14985,6 +20349,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>自班吗？天天说杀气轻，我们班的沙姓陈，沙性怎么样？他只知道讲学家，只知道，</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -15012,6 +20386,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>烟雨沙哎，是烟雨的，刚让大家，知道的其二是</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -15039,6 +20423,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>你来说一下</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>而且他们都做了同一个动作，那就是效率。这两个笑有没有什么不一样呢？心里头语气、神态心理，这是我们的首先我们来看一下这个讲学家的笑，它会是什么请那个景，，</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -15066,6 +20460,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>他的语气肯定是带有嘲讽的，他的神态呢？哎，傲慢文洋，洋心里呢急确</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -15093,6 +20497,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>嗯，你为什么是这么？你为什么就觉得他</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -15120,6 +20534,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>稍微有点羞辱怎么怎么会会这样子，怎么</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -15147,6 +20571,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>跟大家来看看四个组别哪个组的组别最好</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>，第四组图片，我现在我现在，这样子第四组图的时候，你们从前面的旁摆音响，我们在家里切印象学家设了，曰，而辈不能江湖，</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -15174,6 +20608,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>接下来再请其他班组再来，再来念我们的逆想</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>，学加一词，逆想学，蛇道四周，是小曰，二，不能征服，回到，</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -15201,6 +20645,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>请听一下第三组呢</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>接接下来我们，其他三组一脚回家里教学家，到四中，文学校园，恶，一盆，怎这样的再给，</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -15228,6 +20682,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>是非不非岂然，奉上，电视剧，好，确实有个特别出挑的一个声，好，接下来第二组，想学家，四周，闻，校园，二位不能，</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -15255,6 +20719,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>学渣，预备预备射，寺中，闻之笑曰，</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -15282,6 +20756,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>来可以有重点方是可以的。好，接下来，这个，</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -15309,6 +20793,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>完之后应该怎么样？</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -15336,6 +20830,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>七月，愉快，是难知其一，不知其二则，我一日可，你在游室，</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -15363,6 +20867,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>你觉得老革兵，他像跟那个蒋学家有不一样的，</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>我们讲了一个是，讲学家的小林，接下来还有谁的像革兵，另外有说的不一样，</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -15390,6 +20904,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>依你来说一下</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>我一起来先请，，你觉得讲学那个老婆兵的笑是怎么？为什么？</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -15417,6 +20941,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>是你</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>为什么从这里能看出他的自信？，</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -15444,6 +20978,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>保持自信的还有吗？那个晚，哎，为什么？</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>说明他对这个事物非常的了解。那自己如果胸中有沟壑了，自然他就更加的自信了，对吧？这这样是说，</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -15471,6 +21015,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>小小的嘲讽那个老小小嘲讽那个蒋学家的意思，那他神态就心理应该是怎么样，神态应该是怎么样？胸有成竹的，神态cstyle还可以，昨天开了吗？</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -15498,6 +21052,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>哲给他说一下</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>很笑容满面的嘛，他竟然笑了嘛，他的笑就不应该是那种，有讲学家的那种，有点嘲笑的，就是那种特别嘲笑的，意味着他的笑是比较属于比较自信的那种。那他心里可能会想些什么呢？他心里可能在想什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -15525,6 +21089,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>跟小学家有点不一样的在哪里？他</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -15552,6 +21126,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>你们读这句话</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>他没有你哪里看到，他没有在嘲讽别，没有像那个朝讽那些私人，他不说了吗？求之下流不颠求之地，求之地中不更颠乎。哇，里面说读出来有点嘲讽酒，</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -15579,6 +21163,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>我们来看一下这个讲学家用了多少个反问句</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>反问句和其他句比起来，你觉得比一个陈述句比起来有个更一个语气要更加的强烈一点。，</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -15606,6 +21200,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>请大家把这两句反问句读</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>沿何求之不亦颠乎，用的是哪一句啊？哎，更跌。那这样子，，这个讲学家的感受来，首先先读第一句，一讲学家设帐四周闻之笑曰，</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -15633,6 +21237,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>井松，水不能充食，去凡，10里必于，下意胜，面纱唯，穴，期见身，</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -15660,6 +21274,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>找到，势在变，时又在转，</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -15687,6 +21311,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>咱们再来一下钙，开始钙食性肩重美</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>就是石头倒下去，然后又开始转不停的转动，他就不停的往前翻。这个速度你应该稍微读快一点，说明他对这个他对这个事情是非常非常自信的。，</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -15714,6 +21348,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>快钙石性，肿沙性松浮水，不能充实，其反击之力于石下水感学预备起，盖。但时行，杀逊苦，</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -15741,6 +21385,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>一个人叫做讲学家，一个叫做老，这两个称呼有加用，一个自己给加，假面？我们加一个是要，称呼一样，说明他们的啊，为什么你们说他们</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -15768,6 +21422,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>你是说讲学家，他其实就是说鄙视权威的意思吗？</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>不要迷信，就是就敢于挑战权。有同学对这个敢于挑战权威他是告诉我们要改哦，你的意思就是说讲学家，他其实就是说鄙视权威的意思吗？</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -15795,6 +21459,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>知识有球来源于颈椎好像还要泡脚。</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -15822,6 +21496,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>沁还有什么要讲？</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>他说这个讲学家是有点纯靠一个纯凭想象的，但这个老河兵不一样，由由由于他核，复的这个经验，他知道盒装丢失的时候应该要去往上流转啊，所以说其实有很多知识是来源于生活当中，</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -15849,6 +21533,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>类奖家这一类播？刚刚同学发言都有提到，只会那个，</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -15876,6 +21570,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>是看起来特别特别厉害的人。但是我们知道他到最后他的结论是错的，他这个人还有点点么样，其实那个人也不要要问这个讲学家，但是他自己终身，你们这些人怎么样怎么样，应该要怎么样，这个人有点什么样的意味感。那天我们有学过一个</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -15903,6 +21607,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>我也是第一个说明他年字比较大，第二是呢，</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -15930,6 +21644,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>最后的结论才会是正确的，因为他有充分的经验，而且他对这个河流是非常熟悉的，所以他不只考虑到石头和沙子，还考虑到河流的冲击力。</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -15957,6 +21681,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>就开始想要去指导别人，好为人师的那种人，他们做事情都不只考虑那么一个方面啊，然后就拿自己知道这一个方面，在那边得意洋洋啊，他想说这所以你说这篇文章到到底最后是想要告诉我们什么呢？最终是想要告诉我们，</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -15984,6 +21718,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>你来补充</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>这这个叫，每次啊都说我对本没有校，对，没有教育课上都已经讲到题目不去了，都本我刚刚刚候也就看到什么就看到呀，当时看的时候，你看到眼袋在那边，</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -16011,6 +21755,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>所以这个结奏应该是什么？上面第二小题，它的原因是什么呢？原因是他没有考虑他的道理应该这一记好了吗？</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -16038,6 +21792,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>大家有没有还记不记得这篇故事选自哪本岳微草是一部。首先我先问一下大家，</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>你要有自己的实际生活经验。嗯，这个我等一下给大家介绍一下，岳微，观察细小的事物，略微草堂是纪晓岚的</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -16065,6 +21829,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>这个人呢叫做他原名叫做纪云字</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -16092,6 +21866,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>交给他，他也能做的非常好，就说明这个人政治地位很高，文学成就也很高，很少有人能，因为它的嗜号叫文达，敏而好学，可为文的文，授之以慎不达很好，又是他政治非常的。</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -16119,6 +21903,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>为什么为什么？为什么在电视剧里有点忌惮纪晓岚？因为纪晓岚他的政治地位是非常高的，他的成就也是钱总也是很喜欢纪晓岚，</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -16146,6 +21940,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>人就算他就算做了很多伤缺害的事，他也不是很感动纪晓岚，</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -16173,6 +21977,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充。</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>和珅是历史上的大贪花，</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -16200,6 +22014,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>好，接下来我们来看一下，拿出克时特训吧。</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>非常非常，哦，跟考官，但是我记得那时我刚开学开学第一节的时候也讲过纪晓岚的一个对，拍这个，哎，我忘记了。</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -16227,6 +22051,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>我们一起来读一下吧。石兽沉鱼和僧人蛋汁预备起</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>读的意思而被赋能物理。物理是，哎，物理什么意思啊？秀的道理，求知下游车下流是b啊b哎，肯定是三b的吗？我们用课文歌词来填空，，</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -16252,6 +22086,16 @@
       <c r="E586" t="inlineStr">
         <is>
           <t>个体发言</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>来这位同学，你来补充</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>说什么事情呢？就有时候做人啊，做人也有个道理，就是说你不要去太过于想要去评价别人，就不要去评价别人，只讲自己客观看到的东西，不要去主观的评价别人。因为每个人的事情都不是说你都能知到，所以不要去。</t>
         </is>
       </c>
     </row>
